--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H2">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>480.3181553750645</v>
+        <v>2504.494468268928</v>
       </c>
       <c r="R2">
-        <v>480.3181553750645</v>
+        <v>22540.45021442035</v>
       </c>
       <c r="S2">
-        <v>0.0607198659769009</v>
+        <v>0.1827109126823928</v>
       </c>
       <c r="T2">
-        <v>0.0607198659769009</v>
+        <v>0.1827109126823928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H3">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>350.1174977125347</v>
+        <v>1493.503702360128</v>
       </c>
       <c r="R3">
-        <v>350.1174977125347</v>
+        <v>13441.53332124115</v>
       </c>
       <c r="S3">
-        <v>0.04426042884153004</v>
+        <v>0.1089558903044263</v>
       </c>
       <c r="T3">
-        <v>0.04426042884153004</v>
+        <v>0.1089558903044263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H4">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>353.3212451255954</v>
+        <v>1556.883748994112</v>
       </c>
       <c r="R4">
-        <v>353.3212451255954</v>
+        <v>14011.95374094701</v>
       </c>
       <c r="S4">
-        <v>0.04466543354803128</v>
+        <v>0.1135796682017486</v>
       </c>
       <c r="T4">
-        <v>0.04466543354803128</v>
+        <v>0.1135796682017486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H5">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>123.9507505781252</v>
+        <v>539.7702752361602</v>
       </c>
       <c r="R5">
-        <v>123.9507505781252</v>
+        <v>4857.932477125441</v>
       </c>
       <c r="S5">
-        <v>0.01566934932318563</v>
+        <v>0.03937797462790616</v>
       </c>
       <c r="T5">
-        <v>0.01566934932318563</v>
+        <v>0.03937797462790615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H6">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>1301.411847826555</v>
+        <v>1594.083224069629</v>
       </c>
       <c r="R6">
-        <v>1301.411847826555</v>
+        <v>14346.74901662666</v>
       </c>
       <c r="S6">
-        <v>0.1645191881599271</v>
+        <v>0.1162934893454828</v>
       </c>
       <c r="T6">
-        <v>0.1645191881599271</v>
+        <v>0.1162934893454827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H7">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>948.6359292387765</v>
+        <v>950.5987045216812</v>
       </c>
       <c r="R7">
-        <v>948.6359292387765</v>
+        <v>8555.38834069513</v>
       </c>
       <c r="S7">
-        <v>0.1199226925729522</v>
+        <v>0.06934922759797713</v>
       </c>
       <c r="T7">
-        <v>0.1199226925729522</v>
+        <v>0.06934922759797713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H8">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>957.3164148588654</v>
+        <v>990.9394081487159</v>
       </c>
       <c r="R8">
-        <v>957.3164148588654</v>
+        <v>8918.454673338441</v>
       </c>
       <c r="S8">
-        <v>0.1210200442294905</v>
+        <v>0.07229221145013949</v>
       </c>
       <c r="T8">
-        <v>0.1210200442294905</v>
+        <v>0.07229221145013948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H9">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>335.8419279891762</v>
+        <v>343.5578522958896</v>
       </c>
       <c r="R9">
-        <v>335.8419279891762</v>
+        <v>3092.020670663006</v>
       </c>
       <c r="S9">
-        <v>0.04245576942850127</v>
+        <v>0.02506364839191346</v>
       </c>
       <c r="T9">
-        <v>0.04245576942850127</v>
+        <v>0.02506364839191345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H10">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>704.9128248747338</v>
+        <v>1012.498376647316</v>
       </c>
       <c r="R10">
-        <v>704.9128248747338</v>
+        <v>9112.485389825846</v>
       </c>
       <c r="S10">
-        <v>0.08911220984009992</v>
+        <v>0.07386500742185223</v>
       </c>
       <c r="T10">
-        <v>0.08911220984009992</v>
+        <v>0.07386500742185222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H11">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>513.830908927222</v>
+        <v>603.7825570449661</v>
       </c>
       <c r="R11">
-        <v>513.830908927222</v>
+        <v>5434.043013404695</v>
       </c>
       <c r="S11">
-        <v>0.06495641186098254</v>
+        <v>0.04404787611115974</v>
       </c>
       <c r="T11">
-        <v>0.06495641186098254</v>
+        <v>0.04404787611115974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H12">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>518.5327146238279</v>
+        <v>629.4053704078141</v>
       </c>
       <c r="R12">
-        <v>518.5327146238279</v>
+        <v>5664.648333670326</v>
       </c>
       <c r="S12">
-        <v>0.06555079499756086</v>
+        <v>0.04591714261357386</v>
       </c>
       <c r="T12">
-        <v>0.06555079499756086</v>
+        <v>0.04591714261357385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H13">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N13">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q13">
-        <v>181.9095796350692</v>
+        <v>218.21430806227</v>
       </c>
       <c r="R13">
-        <v>181.9095796350692</v>
+        <v>1963.92877256043</v>
       </c>
       <c r="S13">
-        <v>0.02299626856022275</v>
+        <v>0.01591943439746221</v>
       </c>
       <c r="T13">
-        <v>0.02299626856022275</v>
+        <v>0.0159194343974622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H14">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N14">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q14">
-        <v>418.8281192064084</v>
+        <v>521.7551705782699</v>
       </c>
       <c r="R14">
-        <v>418.8281192064084</v>
+        <v>4695.79653520443</v>
       </c>
       <c r="S14">
-        <v>0.05294654591124549</v>
+        <v>0.03806371490171599</v>
       </c>
       <c r="T14">
-        <v>0.05294654591124549</v>
+        <v>0.03806371490171598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H15">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N15">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q15">
-        <v>305.2956700204042</v>
+        <v>311.137951733145</v>
       </c>
       <c r="R15">
-        <v>305.2956700204042</v>
+        <v>2800.241565598305</v>
       </c>
       <c r="S15">
-        <v>0.03859423584039163</v>
+        <v>0.02269851255474561</v>
       </c>
       <c r="T15">
-        <v>0.03859423584039163</v>
+        <v>0.02269851255474561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H16">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N16">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q16">
-        <v>308.0892756511904</v>
+        <v>324.3417609097049</v>
       </c>
       <c r="R16">
-        <v>308.0892756511904</v>
+        <v>2919.075848187344</v>
       </c>
       <c r="S16">
-        <v>0.03894739209233717</v>
+        <v>0.02366177282786608</v>
       </c>
       <c r="T16">
-        <v>0.03894739209233717</v>
+        <v>0.02366177282786608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H17">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N17">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q17">
-        <v>108.0826513799398</v>
+        <v>112.449013402525</v>
       </c>
       <c r="R17">
-        <v>108.0826513799398</v>
+        <v>1012.041120622725</v>
       </c>
       <c r="S17">
-        <v>0.01366336881664072</v>
+        <v>0.00820351656963764</v>
       </c>
       <c r="T17">
-        <v>0.01366336881664072</v>
+        <v>0.008203516569637638</v>
       </c>
     </row>
   </sheetData>
